--- a/BIO247Project/BIO247ProjectArticles/bat2path.xlsx
+++ b/BIO247Project/BIO247ProjectArticles/bat2path.xlsx
@@ -1,35 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8e56c0a1657867c1/Desktop/BIO247/BIO247Project/BIO247ProjectArticles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{363F73F6-8423-4F29-944B-C710ABD0FA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{023B9527-88AB-4D78-8BC0-4F587A4814B9}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_F25DC773A252ABDACC1048EF291B49845ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9513E829-F8AA-4E21-BEA8-5607E5C75390}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{291768D0-F05C-4E64-8706-190E990D10A2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -38,91 +27,91 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
+    <t>pathways</t>
+  </si>
+  <si>
     <t>Isobutanol pathways</t>
   </si>
   <si>
     <t>Metabolic engineering of Corynebacterium crenatium for enhancing production of higher alcohols</t>
   </si>
   <si>
+    <t>Pathways for 1-propanol production in</t>
+  </si>
+  <si>
     <t>Diagrammatic representation of the compartmentalization of the leucine amino acid biosynthetic pathway of S</t>
   </si>
   <si>
     <t>Isobutanol biosynthesis pathway in yeast S</t>
   </si>
   <si>
+    <t>Engineering the mitochondrial isobutanol biosynthetic pathway in a xylose-utiizing strain of S</t>
+  </si>
+  <si>
     <t>conSCOM S. cerevisiae 133</t>
   </si>
   <si>
-    <t>TCGA-TGCT [miRNA vs RNA] GO: covalent chromatin modification [2040006638]</t>
-  </si>
-  <si>
-    <t>TCGA-DLBC [miRNA vs RNA] GO: histone H3-K9 methylation [2040009425]</t>
-  </si>
-  <si>
-    <t>TCGA-UCS [miRNA vs RNA] GO: negative regulation of RNA metabolic process [2040004353]</t>
-  </si>
-  <si>
-    <t>TCGA-UVM [miRNA vs RNA] GO: branching involved in salivary gland morphogenesis [2040007919]</t>
+    <t>TCGA-TGCT [miRNA vs RNA] GO: covalent chromatin modification</t>
+  </si>
+  <si>
+    <t>TCGA-DLBC [miRNA vs RNA] GO: histone H3-K9 methylation</t>
+  </si>
+  <si>
+    <t>TCGA-UCS [miRNA vs RNA] GO: negative regulation of RNA metabolic process</t>
+  </si>
+  <si>
+    <t>TCGA-UVM [miRNA vs RNA] GO: branching involved in salivary gland morphogenesis</t>
   </si>
   <si>
     <t>Rheumatoid Arthritis CORE INTERACTOME</t>
   </si>
   <si>
+    <t>Bandyopadhyay et al  NATURE METHODS (2010) - Full MAPK Y2H</t>
+  </si>
+  <si>
     <t>BioGRID: Protein-Protein Interactions (X. laevis)</t>
   </si>
   <si>
-    <t>TCGA-THYM [miRNA vs RNA] GO: glycosaminoglycan metabolic process [2040000739]</t>
+    <t>TCGA-THYM [miRNA vs RNA] GO: glycosaminoglycan metabolic process</t>
+  </si>
+  <si>
+    <t>BioGRID: Prote!</t>
+  </si>
+  <si>
+    <t>Protein Interactions (HIV-1)</t>
   </si>
   <si>
     <t>BioGRID: Protein-Protein Interactions (R. norvegicus)</t>
   </si>
   <si>
+    <t>Rheumatoid_Arthriis_ EXTENDED_INTERACTOME</t>
+  </si>
+  <si>
     <t>BioGRID: Protein-Protein Interactions (SARS-CoV-2)</t>
   </si>
   <si>
+    <t>Protein Interactions (S. cerevisiae)</t>
+  </si>
+  <si>
+    <t>Normal Colon Cells Regulatory Network:</t>
+  </si>
+  <si>
     <t>HPRD</t>
   </si>
   <si>
     <t>BioGRID: Protein-Protein Interactions (M. musculus)</t>
   </si>
   <si>
+    <t>Protein Interactions (H. sapiens)</t>
+  </si>
+  <si>
+    <t>MuttiNet</t>
+  </si>
+  <si>
     <t>Parsimonious Composite Network (PCNet)</t>
   </si>
   <si>
     <t>Full Composite Network</t>
-  </si>
-  <si>
-    <t>Pathways for 1-propanol production in</t>
-  </si>
-  <si>
-    <t>Engineering the mitochondrial isobutanol biosynthetic pathway in a xylose-utiizing strain of S</t>
-  </si>
-  <si>
-    <t>BioGRID: Prote!</t>
-  </si>
-  <si>
-    <t>Protein Interactions (HIV-1)</t>
-  </si>
-  <si>
-    <t>Rheumatoid_Arthriis_ EXTENDED_INTERACTOME</t>
-  </si>
-  <si>
-    <t>Protein Interactions (S. cerevisiae)</t>
-  </si>
-  <si>
-    <t>Normal Colon Cells Regulatory Network:</t>
-  </si>
-  <si>
-    <t>Protein Interactions (H. sapiens)</t>
-  </si>
-  <si>
-    <t>MuttiNet</t>
-  </si>
-  <si>
-    <t>pathways</t>
-  </si>
-  <si>
-    <t>Bandyopadhyay et al  NATURE METHODS (2010) - Full MAPK Y2H</t>
   </si>
 </sst>
 </file>
@@ -158,11 +147,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -197,7 +183,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -209,7 +195,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -256,23 +242,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -308,23 +277,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -476,175 +428,171 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2600B5F9-80FC-4044-BEF5-3D624A34EAE7}">
-  <dimension ref="A1:A32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection sqref="A1:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>